--- a/data/excel_dumps/patients/patient_2.xlsx
+++ b/data/excel_dumps/patients/patient_2.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="16">
   <si>
     <t>Student Id</t>
   </si>
@@ -60,6 +60,9 @@
   </si>
   <si>
     <t>2019-12-18</t>
+  </si>
+  <si>
+    <t>2019-12-30</t>
   </si>
 </sst>
 </file>
@@ -398,7 +401,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -608,6 +611,23 @@
       </c>
       <c r="E12" t="s">
         <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13">
+        <v>8</v>
+      </c>
+      <c r="E13" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
